--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.186259584258</v>
+        <v>14.34085166666667</v>
       </c>
       <c r="H2">
-        <v>14.186259584258</v>
+        <v>43.022555</v>
       </c>
       <c r="I2">
-        <v>0.545580931717849</v>
+        <v>0.5393411052175457</v>
       </c>
       <c r="J2">
-        <v>0.545580931717849</v>
+        <v>0.5393411052175457</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N2">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q2">
-        <v>100.0638292472839</v>
+        <v>125.8775664481694</v>
       </c>
       <c r="R2">
-        <v>100.0638292472839</v>
+        <v>1132.898098033525</v>
       </c>
       <c r="S2">
-        <v>0.03604085706474822</v>
+        <v>0.04020689819072235</v>
       </c>
       <c r="T2">
-        <v>0.03604085706474822</v>
+        <v>0.04020689819072235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.186259584258</v>
+        <v>14.34085166666667</v>
       </c>
       <c r="H3">
-        <v>14.186259584258</v>
+        <v>43.022555</v>
       </c>
       <c r="I3">
-        <v>0.545580931717849</v>
+        <v>0.5393411052175457</v>
       </c>
       <c r="J3">
-        <v>0.545580931717849</v>
+        <v>0.5393411052175457</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q3">
-        <v>511.4477442996779</v>
+        <v>518.2985568116284</v>
       </c>
       <c r="R3">
-        <v>511.4477442996779</v>
+        <v>4664.687011304655</v>
       </c>
       <c r="S3">
-        <v>0.1842125689877386</v>
+        <v>0.165551161292144</v>
       </c>
       <c r="T3">
-        <v>0.1842125689877386</v>
+        <v>0.165551161292144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.186259584258</v>
+        <v>14.34085166666667</v>
       </c>
       <c r="H4">
-        <v>14.186259584258</v>
+        <v>43.022555</v>
       </c>
       <c r="I4">
-        <v>0.545580931717849</v>
+        <v>0.5393411052175457</v>
       </c>
       <c r="J4">
-        <v>0.545580931717849</v>
+        <v>0.5393411052175457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N4">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q4">
-        <v>666.683618539021</v>
+        <v>782.7300943273616</v>
       </c>
       <c r="R4">
-        <v>666.683618539021</v>
+        <v>7044.570848946255</v>
       </c>
       <c r="S4">
-        <v>0.2401252199113316</v>
+        <v>0.2500139627849661</v>
       </c>
       <c r="T4">
-        <v>0.2401252199113316</v>
+        <v>0.2500139627849661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.186259584258</v>
+        <v>14.34085166666667</v>
       </c>
       <c r="H5">
-        <v>14.186259584258</v>
+        <v>43.022555</v>
       </c>
       <c r="I5">
-        <v>0.545580931717849</v>
+        <v>0.5393411052175457</v>
       </c>
       <c r="J5">
-        <v>0.545580931717849</v>
+        <v>0.5393411052175457</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N5">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q5">
-        <v>236.555611256776</v>
+        <v>261.6335321893212</v>
       </c>
       <c r="R5">
-        <v>236.555611256776</v>
+        <v>2354.70178970389</v>
       </c>
       <c r="S5">
-        <v>0.08520228575403062</v>
+        <v>0.08356908294971327</v>
       </c>
       <c r="T5">
-        <v>0.08520228575403062</v>
+        <v>0.08356908294971326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.7933179336229</v>
+        <v>6.825018</v>
       </c>
       <c r="H6">
-        <v>6.7933179336229</v>
+        <v>20.475054</v>
       </c>
       <c r="I6">
-        <v>0.2612601796596414</v>
+        <v>0.2566802053887532</v>
       </c>
       <c r="J6">
-        <v>0.2612601796596414</v>
+        <v>0.2566802053887532</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N6">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q6">
-        <v>47.91716954671163</v>
+        <v>59.90694812093</v>
       </c>
       <c r="R6">
-        <v>47.91716954671163</v>
+        <v>539.16253308837</v>
       </c>
       <c r="S6">
-        <v>0.01725874246040026</v>
+        <v>0.01913504234296505</v>
       </c>
       <c r="T6">
-        <v>0.01725874246040026</v>
+        <v>0.01913504234296505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.7933179336229</v>
+        <v>6.825018</v>
       </c>
       <c r="H7">
-        <v>6.7933179336229</v>
+        <v>20.475054</v>
       </c>
       <c r="I7">
-        <v>0.2612601796596414</v>
+        <v>0.2566802053887532</v>
       </c>
       <c r="J7">
-        <v>0.2612601796596414</v>
+        <v>0.2566802053887532</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q7">
-        <v>244.9149554063872</v>
+        <v>246.665753320326</v>
       </c>
       <c r="R7">
-        <v>244.9149554063872</v>
+        <v>2219.991779882934</v>
       </c>
       <c r="S7">
-        <v>0.08821314322288319</v>
+        <v>0.07878818371478306</v>
       </c>
       <c r="T7">
-        <v>0.08821314322288319</v>
+        <v>0.07878818371478305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.7933179336229</v>
+        <v>6.825018</v>
       </c>
       <c r="H8">
-        <v>6.7933179336229</v>
+        <v>20.475054</v>
       </c>
       <c r="I8">
-        <v>0.2612601796596414</v>
+        <v>0.2566802053887532</v>
       </c>
       <c r="J8">
-        <v>0.2612601796596414</v>
+        <v>0.2566802053887532</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N8">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q8">
-        <v>319.2521435953003</v>
+        <v>372.512533223046</v>
       </c>
       <c r="R8">
-        <v>319.2521435953003</v>
+        <v>3352.612799007414</v>
       </c>
       <c r="S8">
-        <v>0.1149878128938885</v>
+        <v>0.1189852482907204</v>
       </c>
       <c r="T8">
-        <v>0.1149878128938885</v>
+        <v>0.1189852482907204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.7933179336229</v>
+        <v>6.825018</v>
       </c>
       <c r="H9">
-        <v>6.7933179336229</v>
+        <v>20.475054</v>
       </c>
       <c r="I9">
-        <v>0.2612601796596414</v>
+        <v>0.2566802053887532</v>
       </c>
       <c r="J9">
-        <v>0.2612601796596414</v>
+        <v>0.2566802053887532</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N9">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O9">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P9">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q9">
-        <v>113.2784485371333</v>
+        <v>124.515168840788</v>
       </c>
       <c r="R9">
-        <v>113.2784485371333</v>
+        <v>1120.636519567092</v>
       </c>
       <c r="S9">
-        <v>0.04080048108246943</v>
+        <v>0.03977173104028477</v>
       </c>
       <c r="T9">
-        <v>0.04080048108246943</v>
+        <v>0.03977173104028477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.795698852285786</v>
+        <v>0.9237333333333333</v>
       </c>
       <c r="H10">
-        <v>0.795698852285786</v>
+        <v>2.7712</v>
       </c>
       <c r="I10">
-        <v>0.03060130957131421</v>
+        <v>0.03474043024127374</v>
       </c>
       <c r="J10">
-        <v>0.03060130957131421</v>
+        <v>0.03474043024127375</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N10">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O10">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P10">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q10">
-        <v>5.612520595332752</v>
+        <v>8.108117059555555</v>
       </c>
       <c r="R10">
-        <v>5.612520595332752</v>
+        <v>72.97305353599999</v>
       </c>
       <c r="S10">
-        <v>0.002021510210742149</v>
+        <v>0.002589835872512216</v>
       </c>
       <c r="T10">
-        <v>0.002021510210742149</v>
+        <v>0.002589835872512216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.795698852285786</v>
+        <v>0.9237333333333333</v>
       </c>
       <c r="H11">
-        <v>0.795698852285786</v>
+        <v>2.7712</v>
       </c>
       <c r="I11">
-        <v>0.03060130957131421</v>
+        <v>0.03474043024127374</v>
       </c>
       <c r="J11">
-        <v>0.03060130957131421</v>
+        <v>0.03474043024127375</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P11">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q11">
-        <v>28.68679941504774</v>
+        <v>33.38502235946667</v>
       </c>
       <c r="R11">
-        <v>28.68679941504774</v>
+        <v>300.4652012352</v>
       </c>
       <c r="S11">
-        <v>0.01033237329752601</v>
+        <v>0.01066360141030186</v>
       </c>
       <c r="T11">
-        <v>0.01033237329752601</v>
+        <v>0.01066360141030186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.795698852285786</v>
+        <v>0.9237333333333333</v>
       </c>
       <c r="H12">
-        <v>0.795698852285786</v>
+        <v>2.7712</v>
       </c>
       <c r="I12">
-        <v>0.03060130957131421</v>
+        <v>0.03474043024127374</v>
       </c>
       <c r="J12">
-        <v>0.03060130957131421</v>
+        <v>0.03474043024127375</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N12">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O12">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P12">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q12">
-        <v>37.39388715950809</v>
+        <v>50.41777824213333</v>
       </c>
       <c r="R12">
-        <v>37.39388715950809</v>
+        <v>453.7600041792</v>
       </c>
       <c r="S12">
-        <v>0.01346848059232889</v>
+        <v>0.01610408060771142</v>
       </c>
       <c r="T12">
-        <v>0.01346848059232889</v>
+        <v>0.01610408060771143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.795698852285786</v>
+        <v>0.9237333333333333</v>
       </c>
       <c r="H13">
-        <v>0.795698852285786</v>
+        <v>2.7712</v>
       </c>
       <c r="I13">
-        <v>0.03060130957131421</v>
+        <v>0.03474043024127374</v>
       </c>
       <c r="J13">
-        <v>0.03060130957131421</v>
+        <v>0.03474043024127375</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N13">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O13">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P13">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q13">
-        <v>13.26826336856604</v>
+        <v>16.85252873528889</v>
       </c>
       <c r="R13">
-        <v>13.26826336856604</v>
+        <v>151.6727586176</v>
       </c>
       <c r="S13">
-        <v>0.004778945470717165</v>
+        <v>0.005382912350748239</v>
       </c>
       <c r="T13">
-        <v>0.004778945470717165</v>
+        <v>0.005382912350748239</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.22684129840778</v>
+        <v>4.499973666666667</v>
       </c>
       <c r="H14">
-        <v>4.22684129840778</v>
+        <v>13.499921</v>
       </c>
       <c r="I14">
-        <v>0.1625575790511955</v>
+        <v>0.1692382591524273</v>
       </c>
       <c r="J14">
-        <v>0.1625575790511955</v>
+        <v>0.1692382591524273</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N14">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O14">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P14">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q14">
-        <v>29.81433713567325</v>
+        <v>39.49875135780611</v>
       </c>
       <c r="R14">
-        <v>29.81433713567325</v>
+        <v>355.488762220255</v>
       </c>
       <c r="S14">
-        <v>0.01073848833559586</v>
+        <v>0.0126164043309328</v>
       </c>
       <c r="T14">
-        <v>0.01073848833559586</v>
+        <v>0.0126164043309328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.22684129840778</v>
+        <v>4.499973666666667</v>
       </c>
       <c r="H15">
-        <v>4.22684129840778</v>
+        <v>13.499921</v>
       </c>
       <c r="I15">
-        <v>0.1625575790511955</v>
+        <v>0.1692382591524273</v>
       </c>
       <c r="J15">
-        <v>0.1625575790511955</v>
+        <v>0.1692382591524273</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N15">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O15">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P15">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q15">
-        <v>152.3874869724127</v>
+        <v>162.6353797762824</v>
       </c>
       <c r="R15">
-        <v>152.3874869724127</v>
+        <v>1463.718417986541</v>
       </c>
       <c r="S15">
-        <v>0.05488672258240591</v>
+        <v>0.05194781200005909</v>
       </c>
       <c r="T15">
-        <v>0.05488672258240591</v>
+        <v>0.05194781200005909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.22684129840778</v>
+        <v>4.499973666666667</v>
       </c>
       <c r="H16">
-        <v>4.22684129840778</v>
+        <v>13.499921</v>
       </c>
       <c r="I16">
-        <v>0.1625575790511955</v>
+        <v>0.1692382591524273</v>
       </c>
       <c r="J16">
-        <v>0.1625575790511955</v>
+        <v>0.1692382591524273</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N16">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O16">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P16">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q16">
-        <v>198.6405109166106</v>
+        <v>245.6105742148956</v>
       </c>
       <c r="R16">
-        <v>198.6405109166106</v>
+        <v>2210.495167934061</v>
       </c>
       <c r="S16">
-        <v>0.07154607529082188</v>
+        <v>0.07845114606731243</v>
       </c>
       <c r="T16">
-        <v>0.07154607529082188</v>
+        <v>0.07845114606731245</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.22684129840778</v>
+        <v>4.499973666666667</v>
       </c>
       <c r="H17">
-        <v>4.22684129840778</v>
+        <v>13.499921</v>
       </c>
       <c r="I17">
-        <v>0.1625575790511955</v>
+        <v>0.1692382591524273</v>
       </c>
       <c r="J17">
-        <v>0.1625575790511955</v>
+        <v>0.1692382591524273</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N17">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O17">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P17">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q17">
-        <v>70.48249900486614</v>
+        <v>82.09721657643979</v>
       </c>
       <c r="R17">
-        <v>70.48249900486614</v>
+        <v>738.8749491879581</v>
       </c>
       <c r="S17">
-        <v>0.02538629284237182</v>
+        <v>0.02622289675412295</v>
       </c>
       <c r="T17">
-        <v>0.02538629284237182</v>
+        <v>0.02622289675412295</v>
       </c>
     </row>
   </sheetData>
